--- a/Lab2/BFS_Statistics.xlsx
+++ b/Lab2/BFS_Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xisung/Desktop/StudyHard/AlgorithmandDiscretMath/AI_XiS/Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8713D1BC-35F1-1C41-8AFD-68D2A8490332}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D09265E-B4AF-8C48-AC2A-710D8DC191CF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{0F990C6A-FB82-2442-B3EC-CB5EAA484A83}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{0F990C6A-FB82-2442-B3EC-CB5EAA484A83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Density of Wall and Mud</t>
   </si>
@@ -44,57 +44,12 @@
   <si>
     <t>Turn time</t>
   </si>
-  <si>
-    <t>72/110/136</t>
-  </si>
-  <si>
-    <t>0.0162529945373535/0.08790993690490723/0.08023715019226074</t>
-  </si>
-  <si>
-    <t>0.00021043750974867/0.00021036754954944958/0.00024102189961601705</t>
-  </si>
-  <si>
-    <t>0.0744881629943847/0.009629964828491211/0.050696372985839844</t>
-  </si>
-  <si>
-    <t>110/50/90</t>
-  </si>
-  <si>
-    <t>0.00022169676694003/0.00019675254821777344/0.00021377139621310765</t>
-  </si>
-  <si>
-    <t>62/78/48</t>
-  </si>
-  <si>
-    <t>0.0155119895935058/0.018481969833374023/0.015887975692749023</t>
-  </si>
-  <si>
-    <t>0.000182709386271815/0.00019616958422538562/0.0001765588919321696</t>
-  </si>
-  <si>
-    <t>24/34/24</t>
-  </si>
-  <si>
-    <t>0.00398826599121093/0.004218101501464844/0.002578258514404297</t>
-  </si>
-  <si>
-    <t>0.000170419613520304/0.00018077738144818475/0.00017625093460083008</t>
-  </si>
-  <si>
-    <t>0.00116515159606933/0.0018978118896484375/0.0011188983917236328</t>
-  </si>
-  <si>
-    <t>0.000214099884033203/0.00017549097537994385/0.00017764568328857422</t>
-  </si>
-  <si>
-    <t>16/10/10</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +64,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF9AFA42"/>
+      <name val="Monaco"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,7 +96,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +414,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,7 +448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -497,94 +458,94 @@
       <c r="C2" s="2">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
+      <c r="D2" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.3380050659179601E-3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4.5052432351642101E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="D3" s="3">
+        <v>61.4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.3169050216674799E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2.0163601894220801E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
+      </c>
+      <c r="D4" s="3">
+        <v>90</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.1489148139953601E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.8151413416369699E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2">
-        <v>41</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="D5" s="2">
+        <v>133</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.22781901359558099</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.77022029203121E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2">
-        <v>51</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
+        <v>91</v>
+      </c>
+      <c r="D6" s="2">
+        <v>183.4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.53184859752655</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.98853056582482E-4</v>
       </c>
     </row>
   </sheetData>
